--- a/IPL/Delhi Capitals/Anrich Nortje .xlsx
+++ b/IPL/Delhi Capitals/Anrich Nortje .xlsx
@@ -408,10 +408,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -428,10 +428,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C4" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>

--- a/IPL/Delhi Capitals/Anrich Nortje .xlsx
+++ b/IPL/Delhi Capitals/Anrich Nortje .xlsx
@@ -408,10 +408,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -428,10 +428,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
         <v>3</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C6" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
